--- a/dg_mons.xlsx
+++ b/dg_mons.xlsx
@@ -19,73 +19,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>히오스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하스스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>오버워치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도타2</t>
+  </si>
+  <si>
+    <t>워프레임</t>
+  </si>
+  <si>
+    <t>던파</t>
+  </si>
+  <si>
+    <t>메이플스토리</t>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도타2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이플스토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마인크래프트</t>
+  </si>
+  <si>
+    <t>마영전</t>
+  </si>
+  <si>
+    <t>로스트아크</t>
+  </si>
+  <si>
+    <t>겟앰프드</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>소울워커</t>
+  </si>
+  <si>
+    <t>배틀그라운드</t>
+  </si>
+  <si>
+    <t>카트라이더</t>
+  </si>
+  <si>
+    <t>서든어택</t>
+  </si>
+  <si>
+    <t>언더테일</t>
+  </si>
+  <si>
+    <t>서든어택2</t>
+  </si>
+  <si>
+    <t>크아</t>
+  </si>
+  <si>
+    <t>포켓몬스터</t>
+  </si>
+  <si>
+    <t>몬스터헌터</t>
+  </si>
+  <si>
+    <t>바우트</t>
+  </si>
+  <si>
+    <t>마비노기</t>
+  </si>
+  <si>
+    <t>엘소드</t>
+  </si>
+  <si>
+    <t>디아블로3</t>
+  </si>
+  <si>
+    <t>건즈</t>
+  </si>
+  <si>
+    <t>뿌테</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +145,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,17 +168,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,109 +494,241 @@
     <col min="2" max="2" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
